--- a/incident_example_data.xlsx
+++ b/incident_example_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="163">
   <si>
     <t>comment</t>
   </si>
@@ -35,6 +35,474 @@
   </si>
   <si>
     <t>priority_code</t>
+  </si>
+  <si>
+    <t>veiligheidsregio</t>
+  </si>
+  <si>
+    <t>B1 Ziekenhuis t Langeland Toneellaan ZOETMR : 15240</t>
+  </si>
+  <si>
+    <t>A1 Helenaveen Rit: 119609</t>
+  </si>
+  <si>
+    <t>A1 Politiebureau Tiel Prinses Beatrixlaan 4001AG Tiel 136187</t>
+  </si>
+  <si>
+    <t>U bent nu actief in de functie OvD-P Copi Piket.</t>
+  </si>
+  <si>
+    <t>B1 (medium care) 13420 Rit 98135 Amsterdam Oosterpark 1091AC OLVGO C5 chirurgie</t>
+  </si>
+  <si>
+    <t>A2 Papenpad 6705CP Wageningen 136186</t>
+  </si>
+  <si>
+    <t>A2 AMBU 17135 Korhaanstraat 3083XG Rotterdam ROTTDM bon 139259</t>
+  </si>
+  <si>
+    <t>A2 (dia: ja) 11130 Rit 130500 Pro Patriastraat Zaandam</t>
+  </si>
+  <si>
+    <t>A2 Vincent van Goghlaan OEGSTG Directe inzet 16181</t>
+  </si>
+  <si>
+    <t>Verkeersstremming A12 Li 144,5 Zevenaar</t>
+  </si>
+  <si>
+    <t>P 2 BNH-05 Stank/hind. lucht (gaslucht) (buiten) Carry Pothuisstraat Hoofddorp 124230</t>
+  </si>
+  <si>
+    <t>A1 AMBU 18185 Kelvinring 2952BG Alblasserdam ALBLDM bon 139258</t>
+  </si>
+  <si>
+    <t>A2 (DIA: ja) AMBU 17166 Veckhoekse Sluisweg 3237LW Vierpolders VIERPL bon 139257</t>
+  </si>
+  <si>
+    <t>A1 Boxtel Rit: 119608</t>
+  </si>
+  <si>
+    <t>A2 Ambulancepost Noordwijk van Berckelweg NDWKZH VWS 16184</t>
+  </si>
+  <si>
+    <t>P 2 BDH-01 (inpakken DPU) Gebouwbrand industrie Gerritse IJzerwaren Marconistraat GOUDA 163131</t>
+  </si>
+  <si>
+    <t>Aanrijding letsel Cramignonstraat Eijsden</t>
+  </si>
+  <si>
+    <t>Graag contact MKA Den Bosch</t>
+  </si>
+  <si>
+    <t>A2 Albert Heijn Koninginneweg BOSKP Directe inzet 16163</t>
+  </si>
+  <si>
+    <t>A1 13991 Rit 98134 Rotterdam Tolhuislaan / MKA 17</t>
+  </si>
+  <si>
+    <t>B2 Radboud N20 Neurologie 921 923 925 Reinier Postlaan 6525GC Nijmegen 136185</t>
+  </si>
+  <si>
+    <t>A1 Goes rit: 165431</t>
+  </si>
+  <si>
+    <t>B1 AMBU 17409 Maasstadweg 3079DZ Rotterdam ROTTDM bon 139256</t>
+  </si>
+  <si>
+    <t>A2 13111 Rit 98132 Amsterdam Comeniusstraat 1065BH De Schutse</t>
+  </si>
+  <si>
+    <t>A2 12146 Rit 130499 Schalkweide Floris van Adrichemlaan Haarlem</t>
+  </si>
+  <si>
+    <t>A1 WvdB Trommelhof 3-8 Trommelhof NDWKZH : 16183</t>
+  </si>
+  <si>
+    <t>A2 (DIA) Papenpad 6705CP Wageningen 136184</t>
+  </si>
+  <si>
+    <t>B1 AMBU 17408 Jasmijnstraat 2982CK Ridderkerk RIDDKK bon 139255</t>
+  </si>
+  <si>
+    <t>Ongeval Materieel Voorburggracht Noord-Scharwoude</t>
+  </si>
+  <si>
+    <t>A1 Meppelweg SGRAVH : 15122</t>
+  </si>
+  <si>
+    <t>A2 Boxmeer Rit: 119607</t>
+  </si>
+  <si>
+    <t>A2 Raamsdonksveer rit: 165430</t>
+  </si>
+  <si>
+    <t>A1 Utrecht 115023</t>
+  </si>
+  <si>
+    <t>P 2 BNH-02 Herbez./kazern. 11-Kazerne Purmerend Gorslaan Purmerend 115032</t>
+  </si>
+  <si>
+    <t>A1 Made rit: 165428</t>
+  </si>
+  <si>
+    <t>B1 (medium care) 13405 Rit 98131 Amsterdam Spaarndammerdijk 1014AE</t>
+  </si>
+  <si>
+    <t>A2 (DIA: ja) AMBU 18190 Tak van Poortvlietstraat 3317JR Dordrecht DORDRT bon 139254</t>
+  </si>
+  <si>
+    <t>P 1 BRT-03 Ass. Ambu (afhijsen, Inzet AED) Tolhuislaan Rotterdam 173451</t>
+  </si>
+  <si>
+    <t>B2 Beugen Rit: 119606</t>
+  </si>
+  <si>
+    <t>A2 DP2 Leidschendam - Voorburg Via Donizetti VOORB VWS 15128</t>
+  </si>
+  <si>
+    <t>B2 AMBU 17401 Kamerlingh Onnesstraat 2984EB Ridderkerk RIDDKK bon 139253</t>
+  </si>
+  <si>
+    <t>1520240 Onbekend</t>
+  </si>
+  <si>
+    <t>1123124 MKA Brabant Zuid-Oost ( Ambulance 22-124 Helmond )</t>
+  </si>
+  <si>
+    <t>923114 MKA Gelderland-Zuid ( Ambulance 08-114 ), 923100 MKA Gelderland-Zuid ( Monitorcode )</t>
+  </si>
+  <si>
+    <t>1430127 Onbekend</t>
+  </si>
+  <si>
+    <t>120999 MKA Amsterdam ( Lichtkrant )</t>
+  </si>
+  <si>
+    <t>920105 MKA Gelderland-Midden ( Ambulance 07-105 )</t>
+  </si>
+  <si>
+    <t>1430128 Onbekend, 120420 Onbekend</t>
+  </si>
+  <si>
+    <t>1420999 MKA Rotterdam-Rijnmond ( Monitorcode ), 1420035 MKA Rotterdam-Rijnmond ( Ambulance 17-135 )</t>
+  </si>
+  <si>
+    <t>126999 MKA Kennemerland ( Monitorcode )</t>
+  </si>
+  <si>
+    <t>123130 MKA Zaansteek-Waterland ( Ambulance 11-130 Zaandam )</t>
+  </si>
+  <si>
+    <t>1523181 MKA Hollands-Midden ( Ambulance 16-181 )</t>
+  </si>
+  <si>
+    <t>930010 Politie Gelderland-Midden ( Persinfo Regio )</t>
+  </si>
+  <si>
+    <t>108999 BRW Kennemerland ( Monitorcode ), 108281 BRW Hoofddorp ( Lichtkrant ), 108211 BRW Hoofddorp ( Blusploeg )</t>
+  </si>
+  <si>
+    <t>1423385 MKA Zuid-Holland Zuid ( Ambulance 18-185 ), 1423001 MKA Zuid-Holland Zuid ( Lichtkrant MKA )</t>
+  </si>
+  <si>
+    <t>1420999 MKA Rotterdam-Rijnmond ( Monitorcode )</t>
+  </si>
+  <si>
+    <t>1420999 MKA Rotterdam-Rijnmond ( Monitorcode ), 1420066 MKA Rotterdam-Rijnmond ( Ambulance 17-166 )</t>
+  </si>
+  <si>
+    <t>1120107 MKA Brabant Noord ( Ambulance 21-107 Den Bosch )</t>
+  </si>
+  <si>
+    <t>1523184 MKA Hollands-Midden ( Ambulance 16-184 )</t>
+  </si>
+  <si>
+    <t>1503900 BRW Hollands-Midden ( Monitorcode ), 1503152 BRW Gouda ( Kazernealarm ), 1503151 BRW Gouda ( Korpsalarm )</t>
+  </si>
+  <si>
+    <t>1503181 Onbekend, 1503155 Onbekend</t>
+  </si>
+  <si>
+    <t>1033215 Politie Limburg-Zuid ( Persinformatie )</t>
+  </si>
+  <si>
+    <t>1122001 MKA Brabant Noord ( Infocode HSGHOR )</t>
+  </si>
+  <si>
+    <t>1523163 MKA Hollands-Midden ( Ambulance 16-163 )</t>
+  </si>
+  <si>
+    <t>923100 MKA Gelderland-Zuid ( Monitorcode )</t>
+  </si>
+  <si>
+    <t>923404 Onbekend</t>
+  </si>
+  <si>
+    <t>1320105 MKA Zeeland ( Ambulance 19-105 Goes ), 1320001 MKA Zeeland ( Lichtkrant MKA Middelburg )</t>
+  </si>
+  <si>
+    <t>1420999 MKA Rotterdam-Rijnmond ( Monitorcode ), 1420091 MKA Rotterdam-Rijnmond ( Hulpambulance 17-409 )</t>
+  </si>
+  <si>
+    <t>120999 MKA Amsterdam ( Lichtkrant ), 120111 MKA Amsterdam ( Ambulance 13-111 Amsterdam )</t>
+  </si>
+  <si>
+    <t>126999 MKA Kennemerland ( Monitorcode ), 126146 MKA Kennemerland ( GGD Ambulance 12-146 )</t>
+  </si>
+  <si>
+    <t>1523183 MKA Hollands-Midden ( Ambulance 16-183 )</t>
+  </si>
+  <si>
+    <t>920121 MKA Gelderland-Midden ( Ambulance 07-121 )</t>
+  </si>
+  <si>
+    <t>1420999 MKA Rotterdam-Rijnmond ( Monitorcode ), 1420058 MKA Rotterdam-Rijnmond ( Hulpambulance 17-408 )</t>
+  </si>
+  <si>
+    <t>127850 Politie Noord Holland ( Persinformatie )</t>
+  </si>
+  <si>
+    <t>1520022 MKA Haaglanden ( Ambulance 15-122 )</t>
+  </si>
+  <si>
+    <t>1120128 MKA Brabant Noord ( Ambulance 21-128 Veghel )</t>
+  </si>
+  <si>
+    <t>1220652 MKA Midden en West Brabant ( Ambulance 20-152 Waalwijk ), 1220499 MKA Midden en West Brabant ( Monitorcode )</t>
+  </si>
+  <si>
+    <t>726129 MKA Utrecht ( Ambulance 09-129 )</t>
+  </si>
+  <si>
+    <t>108999 BRW Kennemerland ( Monitorcode )</t>
+  </si>
+  <si>
+    <t>104761 MKA Noord Holland ( Kooijmanbrug-Wheremolenbrug Purmerend ), 104760 MKA Noord Holland ( Beemsterbrug-Hoornsebrug Purmerend ), 104759 MKA Noord Holland ( Sluisbrug Purmerend ), 104758 MKA Noord Holland ( Jan Blankenbrug Purmerend ), 104528 BRW Waterland ( Monitorcode ), 103566 BRW Purmerend ( Lichtkrant Kazerne ), 103546 BRW Purmerend ( Blusploeg 1A )</t>
+  </si>
+  <si>
+    <t>1220651 MKA Midden en West Brabant ( Ambulance 20-151 Waalwijk ), 1220499 MKA Midden en West Brabant ( Monitorcode )</t>
+  </si>
+  <si>
+    <t>120999 MKA Amsterdam ( Lichtkrant ), 120405 MKA Amsterdam ( Zorgambulance 13-405 )</t>
+  </si>
+  <si>
+    <t>1423390 MKA Zuid-Holland Zuid ( Ambulance 18-190 ), 1423001 MKA Zuid-Holland Zuid ( Lichtkrant MKA )</t>
+  </si>
+  <si>
+    <t>1400999 BRW Rotterdam-Rijnmond ( Monitorcode ), 1400441 BRW Rotterdam-Rijnmond ( Kazernealarm Mijnsherenlaan )</t>
+  </si>
+  <si>
+    <t>1120129 MKA Brabant Noord ( Ambulance 21-129 Haps )</t>
+  </si>
+  <si>
+    <t>1520028 MKA Haaglanden ( Ambulance 15-128 )</t>
+  </si>
+  <si>
+    <t>1420999 MKA Rotterdam-Rijnmond ( Monitorcode ), 1420171 MKA Rotterdam-Rijnmond ( Low-Care Ambulance 17-401 )</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:17:24 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:17:15 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:16:45 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:16:18 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:16:17 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:16:03 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:15:41 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:15:22 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:14:56 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:14:37 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:14:05 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:13:56 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:13:20 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:13:18 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:13:13 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:13:01 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:12:52 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:12:39 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:12:18 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:12:00 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:11:54 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:11:45 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:11:30 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:11:28 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:11:09 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:11:01 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:10:54 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:10:31 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:10:28 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:10:04 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:10:03 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:09:35 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:09:07 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:09:06 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:09:02 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:09:01 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:09:00 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:08:48 +0100</t>
+  </si>
+  <si>
+    <t>Wed, 04 Nov 2020 14:08:26 +0100</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Fire brigade</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Prio 2</t>
+  </si>
+  <si>
+    <t>Persinformatie</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>Prio 1</t>
+  </si>
+  <si>
+    <t>onbekend</t>
+  </si>
+  <si>
+    <t>brabant zuid oost</t>
+  </si>
+  <si>
+    <t>gelderland zuid</t>
+  </si>
+  <si>
+    <t>amsterdam</t>
+  </si>
+  <si>
+    <t>gelderland midden</t>
+  </si>
+  <si>
+    <t>rotterdam rijnmond</t>
+  </si>
+  <si>
+    <t>kennemerland</t>
+  </si>
+  <si>
+    <t>zaansteek waterland</t>
+  </si>
+  <si>
+    <t>hollands midden</t>
+  </si>
+  <si>
+    <t>zuid holland zuid</t>
+  </si>
+  <si>
+    <t>brabant noord</t>
+  </si>
+  <si>
+    <t>limburg zuid</t>
+  </si>
+  <si>
+    <t>zeeland</t>
+  </si>
+  <si>
+    <t>noord holland</t>
+  </si>
+  <si>
+    <t>haaglanden</t>
+  </si>
+  <si>
+    <t>midden en west brabant</t>
+  </si>
+  <si>
+    <t>utrecht</t>
   </si>
 </sst>
 </file>
@@ -392,13 +860,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,6 +887,1369 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <v>51.8872475</v>
+      </c>
+      <c r="E4">
+        <v>5.4275978</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <v>52.3599918</v>
+      </c>
+      <c r="E6">
+        <v>4.9160473</v>
+      </c>
+      <c r="F6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7">
+        <v>51.9912368</v>
+      </c>
+      <c r="E7">
+        <v>5.6895675</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8">
+        <v>52.3599918</v>
+      </c>
+      <c r="E8">
+        <v>4.9160473</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>51.8880165</v>
+      </c>
+      <c r="E9">
+        <v>4.4746521</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10">
+        <v>52.4539998</v>
+      </c>
+      <c r="E10">
+        <v>4.817186</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <v>52.4539998</v>
+      </c>
+      <c r="E11">
+        <v>4.817186</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" t="s">
+        <v>141</v>
+      </c>
+      <c r="I11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12">
+        <v>52.1879789</v>
+      </c>
+      <c r="E12">
+        <v>4.478698</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14">
+        <v>52.2970739</v>
+      </c>
+      <c r="E14">
+        <v>4.6672817</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15">
+        <v>51.8543976</v>
+      </c>
+      <c r="E15">
+        <v>4.6745731</v>
+      </c>
+      <c r="F15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16">
+        <v>51.8543976</v>
+      </c>
+      <c r="E16">
+        <v>4.6745731</v>
+      </c>
+      <c r="F16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17">
+        <v>51.8987029</v>
+      </c>
+      <c r="E17">
+        <v>4.205234</v>
+      </c>
+      <c r="F17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" t="s">
+        <v>141</v>
+      </c>
+      <c r="I17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19">
+        <v>52.229388</v>
+      </c>
+      <c r="E19">
+        <v>4.465909</v>
+      </c>
+      <c r="F19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" t="s">
+        <v>141</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20">
+        <v>52.0046364</v>
+      </c>
+      <c r="E20">
+        <v>4.6918331</v>
+      </c>
+      <c r="F20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22">
+        <v>50.7767266</v>
+      </c>
+      <c r="E22">
+        <v>5.7081613</v>
+      </c>
+      <c r="F22" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24">
+        <v>52.0738533</v>
+      </c>
+      <c r="E24">
+        <v>4.6586673</v>
+      </c>
+      <c r="F24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H24" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" t="s">
+        <v>139</v>
+      </c>
+      <c r="I25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26">
+        <v>51.8217672</v>
+      </c>
+      <c r="E26">
+        <v>5.8661527</v>
+      </c>
+      <c r="F26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27">
+        <v>51.8217672</v>
+      </c>
+      <c r="E27">
+        <v>5.8661527</v>
+      </c>
+      <c r="F27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28">
+        <v>50.7767266</v>
+      </c>
+      <c r="E28">
+        <v>5.7081613</v>
+      </c>
+      <c r="F28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" t="s">
+        <v>136</v>
+      </c>
+      <c r="H28" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30">
+        <v>51.8783319</v>
+      </c>
+      <c r="E30">
+        <v>4.5453915</v>
+      </c>
+      <c r="F30" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" t="s">
+        <v>138</v>
+      </c>
+      <c r="I30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31">
+        <v>50.7767266</v>
+      </c>
+      <c r="E31">
+        <v>5.7081613</v>
+      </c>
+      <c r="F31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32">
+        <v>52.3593244</v>
+      </c>
+      <c r="E32">
+        <v>4.8325249</v>
+      </c>
+      <c r="F32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" t="s">
+        <v>141</v>
+      </c>
+      <c r="I32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33">
+        <v>52.3645317</v>
+      </c>
+      <c r="E33">
+        <v>4.6560713</v>
+      </c>
+      <c r="F33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" t="s">
+        <v>141</v>
+      </c>
+      <c r="I33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34">
+        <v>52.2240734</v>
+      </c>
+      <c r="E34">
+        <v>4.4272334</v>
+      </c>
+      <c r="F34" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" t="s">
+        <v>135</v>
+      </c>
+      <c r="H34" t="s">
+        <v>139</v>
+      </c>
+      <c r="I34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35">
+        <v>51.9912368</v>
+      </c>
+      <c r="E35">
+        <v>5.6895675</v>
+      </c>
+      <c r="F35" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" t="s">
+        <v>135</v>
+      </c>
+      <c r="H35" t="s">
+        <v>141</v>
+      </c>
+      <c r="I35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36">
+        <v>51.8727234</v>
+      </c>
+      <c r="E36">
+        <v>4.5850349</v>
+      </c>
+      <c r="F36" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" t="s">
+        <v>135</v>
+      </c>
+      <c r="H36" t="s">
+        <v>138</v>
+      </c>
+      <c r="I36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" t="s">
+        <v>143</v>
+      </c>
+      <c r="I37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38">
+        <v>52.055302</v>
+      </c>
+      <c r="E38">
+        <v>4.2736718</v>
+      </c>
+      <c r="F38" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" t="s">
+        <v>139</v>
+      </c>
+      <c r="I38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" t="s">
+        <v>124</v>
+      </c>
+      <c r="G39" t="s">
+        <v>135</v>
+      </c>
+      <c r="H39" t="s">
+        <v>141</v>
+      </c>
+      <c r="I39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" t="s">
+        <v>135</v>
+      </c>
+      <c r="H40" t="s">
+        <v>141</v>
+      </c>
+      <c r="I40" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41" t="s">
+        <v>139</v>
+      </c>
+      <c r="I41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42">
+        <v>52.5019671</v>
+      </c>
+      <c r="E42">
+        <v>4.9607781</v>
+      </c>
+      <c r="F42" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42" t="s">
+        <v>137</v>
+      </c>
+      <c r="H42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43">
+        <v>52.5019671</v>
+      </c>
+      <c r="E43">
+        <v>4.9607781</v>
+      </c>
+      <c r="F43" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43" t="s">
+        <v>135</v>
+      </c>
+      <c r="H43" t="s">
+        <v>142</v>
+      </c>
+      <c r="I43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" t="s">
+        <v>135</v>
+      </c>
+      <c r="H44" t="s">
+        <v>139</v>
+      </c>
+      <c r="I44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45">
+        <v>52.3870517</v>
+      </c>
+      <c r="E45">
+        <v>4.8461622</v>
+      </c>
+      <c r="F45" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" t="s">
+        <v>135</v>
+      </c>
+      <c r="H45" t="s">
+        <v>138</v>
+      </c>
+      <c r="I45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46">
+        <v>51.7959384</v>
+      </c>
+      <c r="E46">
+        <v>4.6662336</v>
+      </c>
+      <c r="F46" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" t="s">
+        <v>135</v>
+      </c>
+      <c r="H46" t="s">
+        <v>141</v>
+      </c>
+      <c r="I46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47">
+        <v>51.7959384</v>
+      </c>
+      <c r="E47">
+        <v>4.6662336</v>
+      </c>
+      <c r="F47" t="s">
+        <v>129</v>
+      </c>
+      <c r="G47" t="s">
+        <v>135</v>
+      </c>
+      <c r="H47" t="s">
+        <v>141</v>
+      </c>
+      <c r="I47" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48">
+        <v>51.8997933</v>
+      </c>
+      <c r="E48">
+        <v>4.4806466</v>
+      </c>
+      <c r="F48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" t="s">
+        <v>137</v>
+      </c>
+      <c r="H48" t="s">
+        <v>145</v>
+      </c>
+      <c r="I48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
+        <v>131</v>
+      </c>
+      <c r="G49" t="s">
+        <v>135</v>
+      </c>
+      <c r="H49" t="s">
+        <v>144</v>
+      </c>
+      <c r="I49" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50">
+        <v>52.0876551</v>
+      </c>
+      <c r="E50">
+        <v>4.3766709</v>
+      </c>
+      <c r="F50" t="s">
+        <v>132</v>
+      </c>
+      <c r="G50" t="s">
+        <v>135</v>
+      </c>
+      <c r="H50" t="s">
+        <v>141</v>
+      </c>
+      <c r="I50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51">
+        <v>51.8671083</v>
+      </c>
+      <c r="E51">
+        <v>4.6218404</v>
+      </c>
+      <c r="F51" t="s">
+        <v>133</v>
+      </c>
+      <c r="G51" t="s">
+        <v>135</v>
+      </c>
+      <c r="H51" t="s">
+        <v>144</v>
+      </c>
+      <c r="I51" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
